--- a/myapp/files/9_MethodComparePercent/Scenario 330.xlsx
+++ b/myapp/files/9_MethodComparePercent/Scenario 330.xlsx
@@ -581,10 +581,10 @@
         <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>5582</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.991053531449349</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -593,10 +593,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>0.809716599190283</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -619,10 +619,10 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>6642</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.17925072660096</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -631,10 +631,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.809716599190283</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -657,10 +657,10 @@
         <v>16</v>
       </c>
       <c r="E4" t="n">
-        <v>225</v>
+        <v>13788</v>
       </c>
       <c r="F4" t="n">
-        <v>0.456778594340006</v>
+        <v>2.44798389316081</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -669,10 +669,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J4" t="n">
-        <v>2.85714285714286</v>
+        <v>3.23886639676113</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -695,10 +695,10 @@
         <v>18</v>
       </c>
       <c r="E5" t="n">
-        <v>8555</v>
+        <v>28072</v>
       </c>
       <c r="F5" t="n">
-        <v>17.36773722035</v>
+        <v>4.98402987009067</v>
       </c>
       <c r="G5" t="n">
         <v>2</v>
@@ -707,10 +707,10 @@
         <v>3.125</v>
       </c>
       <c r="I5" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="J5" t="n">
-        <v>17.1428571428571</v>
+        <v>6.88259109311741</v>
       </c>
       <c r="K5" t="n">
         <v>4</v>
@@ -733,10 +733,10 @@
         <v>20</v>
       </c>
       <c r="E6" t="n">
-        <v>12730</v>
+        <v>51798</v>
       </c>
       <c r="F6" t="n">
-        <v>25.8435178042145</v>
+        <v>9.19645124005973</v>
       </c>
       <c r="G6" t="n">
         <v>5</v>
@@ -745,10 +745,10 @@
         <v>7.8125</v>
       </c>
       <c r="I6" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="J6" t="n">
-        <v>20</v>
+        <v>9.31174089068826</v>
       </c>
       <c r="K6" t="n">
         <v>11</v>
@@ -771,10 +771,10 @@
         <v>12</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>9258</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1.64370720067325</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1.21457489878543</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -809,10 +809,10 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>304</v>
+        <v>16483</v>
       </c>
       <c r="F8" t="n">
-        <v>0.617158634130497</v>
+        <v>2.9264663846076</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
@@ -821,10 +821,10 @@
         <v>1.5625</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J8" t="n">
-        <v>2.85714285714286</v>
+        <v>2.02429149797571</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -847,10 +847,10 @@
         <v>16</v>
       </c>
       <c r="E9" t="n">
-        <v>2014</v>
+        <v>33394</v>
       </c>
       <c r="F9" t="n">
-        <v>4.08867595111454</v>
+        <v>5.92892182537076</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -859,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="J9" t="n">
-        <v>2.85714285714286</v>
+        <v>5.26315789473684</v>
       </c>
       <c r="K9" t="n">
         <v>4</v>
@@ -885,10 +885,10 @@
         <v>18</v>
       </c>
       <c r="E10" t="n">
-        <v>2743</v>
+        <v>46104</v>
       </c>
       <c r="F10" t="n">
-        <v>5.56863859677616</v>
+        <v>8.18551272195285</v>
       </c>
       <c r="G10" t="n">
         <v>3</v>
@@ -897,10 +897,10 @@
         <v>4.6875</v>
       </c>
       <c r="I10" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="J10" t="n">
-        <v>5.71428571428571</v>
+        <v>8.50202429149797</v>
       </c>
       <c r="K10" t="n">
         <v>7</v>
@@ -923,10 +923,10 @@
         <v>20</v>
       </c>
       <c r="E11" t="n">
-        <v>2850</v>
+        <v>53130</v>
       </c>
       <c r="F11" t="n">
-        <v>5.78586219497341</v>
+        <v>9.43294054566534</v>
       </c>
       <c r="G11" t="n">
         <v>7</v>
@@ -935,10 +935,10 @@
         <v>10.9375</v>
       </c>
       <c r="I11" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="J11" t="n">
-        <v>8.57142857142857</v>
+        <v>12.1457489878543</v>
       </c>
       <c r="K11" t="n">
         <v>7</v>
@@ -961,10 +961,10 @@
         <v>12</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>6534</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1.16007591803835</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -973,10 +973,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.809716599190283</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -999,10 +999,10 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>15916</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>2.82579863965386</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1011,10 +1011,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>2.42914979757085</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1037,10 +1037,10 @@
         <v>16</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>33616</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>5.96833670963836</v>
       </c>
       <c r="G14" t="n">
         <v>4</v>
@@ -1049,10 +1049,10 @@
         <v>6.25</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>4.45344129554656</v>
       </c>
       <c r="K14" t="n">
         <v>5</v>
@@ -1075,10 +1075,10 @@
         <v>18</v>
       </c>
       <c r="E15" t="n">
-        <v>3967</v>
+        <v>51512</v>
       </c>
       <c r="F15" t="n">
-        <v>8.05351414998579</v>
+        <v>9.14567350627354</v>
       </c>
       <c r="G15" t="n">
         <v>13</v>
@@ -1087,10 +1087,10 @@
         <v>20.3125</v>
       </c>
       <c r="I15" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="J15" t="n">
-        <v>8.57142857142857</v>
+        <v>7.69230769230769</v>
       </c>
       <c r="K15" t="n">
         <v>4</v>
@@ -1113,10 +1113,10 @@
         <v>20</v>
       </c>
       <c r="E16" t="n">
-        <v>5912</v>
+        <v>55707</v>
       </c>
       <c r="F16" t="n">
-        <v>12.0021113321694</v>
+        <v>9.89047278331224</v>
       </c>
       <c r="G16" t="n">
         <v>10</v>
@@ -1125,10 +1125,10 @@
         <v>15.625</v>
       </c>
       <c r="I16" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="J16" t="n">
-        <v>8.57142857142857</v>
+        <v>8.90688259109312</v>
       </c>
       <c r="K16" t="n">
         <v>9</v>
@@ -1151,10 +1151,10 @@
         <v>12</v>
       </c>
       <c r="E17" t="n">
-        <v>1634</v>
+        <v>6418</v>
       </c>
       <c r="F17" t="n">
-        <v>3.31722765845142</v>
+        <v>1.13948075328591</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1163,10 +1163,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J17" t="n">
-        <v>2.85714285714286</v>
+        <v>1.61943319838057</v>
       </c>
       <c r="K17" t="n">
         <v>1</v>
@@ -1189,10 +1189,10 @@
         <v>14</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>12636</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>2.24345260182622</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1201,10 +1201,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>2.83400809716599</v>
       </c>
       <c r="K18" t="n">
         <v>1</v>
@@ -1227,10 +1227,10 @@
         <v>16</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>19220</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>3.41240574605097</v>
       </c>
       <c r="G19" t="n">
         <v>4</v>
@@ -1239,10 +1239,10 @@
         <v>6.25</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>3.23886639676113</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -1265,10 +1265,10 @@
         <v>18</v>
       </c>
       <c r="E20" t="n">
-        <v>2226</v>
+        <v>27007</v>
       </c>
       <c r="F20" t="n">
-        <v>4.51906289333712</v>
+        <v>4.79494495232042</v>
       </c>
       <c r="G20" t="n">
         <v>4</v>
@@ -1277,10 +1277,10 @@
         <v>6.25</v>
       </c>
       <c r="I20" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J20" t="n">
-        <v>5.71428571428571</v>
+        <v>4.8582995951417</v>
       </c>
       <c r="K20" t="n">
         <v>2</v>
@@ -1303,10 +1303,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="n">
-        <v>4873</v>
+        <v>23410</v>
       </c>
       <c r="F21" t="n">
-        <v>9.89280928986155</v>
+        <v>4.15631730047103</v>
       </c>
       <c r="G21" t="n">
         <v>6</v>
@@ -1315,10 +1315,10 @@
         <v>9.375</v>
       </c>
       <c r="I21" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="J21" t="n">
-        <v>8.57142857142857</v>
+        <v>5.26315789473684</v>
       </c>
       <c r="K21" t="n">
         <v>5</v>
@@ -1341,10 +1341,10 @@
         <v>12</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>5191</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>0.921633622671726</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>1.21457489878543</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -1379,10 +1379,10 @@
         <v>14</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>9831</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1.74544021276936</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>1.61943319838057</v>
       </c>
       <c r="K23" t="n">
         <v>1</v>
@@ -1417,10 +1417,10 @@
         <v>16</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>11178</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1.98459268623089</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -1429,10 +1429,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>1.21457489878543</v>
       </c>
       <c r="K24" t="n">
         <v>1</v>
@@ -1455,10 +1455,10 @@
         <v>18</v>
       </c>
       <c r="E25" t="n">
-        <v>280</v>
+        <v>11458</v>
       </c>
       <c r="F25" t="n">
-        <v>0.568435584067563</v>
+        <v>2.03430515287471</v>
       </c>
       <c r="G25" t="n">
         <v>3</v>
@@ -1467,10 +1467,10 @@
         <v>4.6875</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J25" t="n">
-        <v>2.85714285714286</v>
+        <v>1.61943319838057</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -1493,10 +1493,10 @@
         <v>20</v>
       </c>
       <c r="E26" t="n">
-        <v>945</v>
+        <v>9354</v>
       </c>
       <c r="F26" t="n">
-        <v>1.91847009622802</v>
+        <v>1.66075147495113</v>
       </c>
       <c r="G26" t="n">
         <v>2</v>
@@ -1505,10 +1505,10 @@
         <v>3.125</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J26" t="n">
-        <v>2.85714285714286</v>
+        <v>2.02429149797571</v>
       </c>
       <c r="K26" t="n">
         <v>2</v>
